--- a/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251104_201433.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_petlove_20251104_201433.xlsx
@@ -3701,7 +3701,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>transdermal</t>
+          <t>plus</t>
         </is>
       </c>
     </row>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>puppy</t>
+          <t>filhote</t>
         </is>
       </c>
     </row>
